--- a/scraped_data.xlsx
+++ b/scraped_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Jobs\2024\Upwork\Python scraping\Python-script---Scraping-oddsportal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7CC706-9A75-41BF-9ABD-3D31AB8AFC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA6F8FA-7C24-4E11-A479-EE25C75318CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="97">
+  <si>
+    <t>Original_URL</t>
+  </si>
   <si>
     <t>Page_URL</t>
   </si>
@@ -58,6 +61,9 @@
     <t>p2</t>
   </si>
   <si>
+    <t>https://www.oddsportal.com/tennis/argentina/atp-buenos-aires/results/</t>
+  </si>
+  <si>
     <t>https://www.oddsportal.com/tennis/argentina/atp-buenos-aires/jarry-nicolas-diaz-acosta-facundo-UNxTu0TC/</t>
   </si>
   <si>
@@ -67,7 +73,7 @@
     <t>92.7%</t>
   </si>
   <si>
-    <t>2024-05-11 20:28:23</t>
+    <t>2024-05-11 21:35:51</t>
   </si>
   <si>
     <t>Compare tennis betting odds on ATP Buenos Aires (clay) match Jarry N. - Diaz Acosta F..</t>
@@ -98,7 +104,7 @@
     <t>-</t>
   </si>
   <si>
-    <t>2024-05-11 20:28:35</t>
+    <t>2024-05-11 21:35:57</t>
   </si>
   <si>
     <t>Compare tennis betting odds on ATP Buenos Aires (clay) match Alcaraz C. - Jarry N..</t>
@@ -128,7 +134,7 @@
     <t>94.4%</t>
   </si>
   <si>
-    <t>2024-05-11 20:28:46</t>
+    <t>2024-05-11 21:36:04</t>
   </si>
   <si>
     <t>Compare tennis betting odds on ATP Buenos Aires (clay) match Diaz Acosta F. - Coria F..</t>
@@ -156,7 +162,7 @@
     <t>94.0%</t>
   </si>
   <si>
-    <t>2024-05-11 20:28:58</t>
+    <t>2024-05-11 21:36:11</t>
   </si>
   <si>
     <t>Compare tennis betting odds on ATP Buenos Aires (clay) match Jarry N. - Etcheverry T. M..</t>
@@ -183,7 +189,7 @@
     <t>94.2%</t>
   </si>
   <si>
-    <t>2024-05-11 20:29:09</t>
+    <t>2024-05-11 21:36:18</t>
   </si>
   <si>
     <t>Compare tennis betting odds on ATP Buenos Aires (clay) match Alcaraz C. - Vavassori A..</t>
@@ -213,7 +219,7 @@
     <t>93.2%</t>
   </si>
   <si>
-    <t>2024-05-11 21:15:21</t>
+    <t>2024-05-11 21:36:25</t>
   </si>
   <si>
     <t>Compare tennis betting odds on ATP Buenos Aires (clay) match Baez S. - Coria F..</t>
@@ -238,16 +244,10 @@
     <t>https://www.oddsportal.com/tennis/argentina/atp-buenos-aires/lajovic-dusan-diaz-acosta-facundo-8h00Qpkc/</t>
   </si>
   <si>
-    <t>1.77</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>93.9%</t>
   </si>
   <si>
-    <t>2024-05-11 21:15:29</t>
+    <t>2024-05-11 21:36:32</t>
   </si>
   <si>
     <t>Compare tennis betting odds on ATP Buenos Aires (clay) match Lajovic D. - Diaz Acosta F..</t>
@@ -267,6 +267,93 @@
   </si>
   <si>
     <t>Lajovic D.</t>
+  </si>
+  <si>
+    <t>https://www.oddsportal.com/tennis/argentina/atp-buenos-aires/baez-sebastian-darderi-luciano-jmtVDzMu/</t>
+  </si>
+  <si>
+    <t>93.3%</t>
+  </si>
+  <si>
+    <t>2024-05-11 21:36:38</t>
+  </si>
+  <si>
+    <t>Compare tennis betting odds on ATP Buenos Aires (clay) match Baez S. - Darderi L..</t>
+  </si>
+  <si>
+    <t>Tennis, [[CountryName]], ATP Buenos Aires (clay), Baez S. - Darderi L.</t>
+  </si>
+  <si>
+    <t>Friday,
+16 Feb 2024,
+01:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final result 
+2:0
+ (6:4, 7:5) </t>
+  </si>
+  <si>
+    <t>Darderi L.</t>
+  </si>
+  <si>
+    <t>https://www.oddsportal.com/tennis/argentina/atp-buenos-aires/alcaraz-garfia-carlos-ugo-carabelli-camilo-2XKMkdyL/</t>
+  </si>
+  <si>
+    <t>2024-05-11 21:36:45</t>
+  </si>
+  <si>
+    <t>Compare tennis betting odds on ATP Buenos Aires (clay) match Alcaraz C. - Ugo Carabelli C..</t>
+  </si>
+  <si>
+    <t>Tennis, [[CountryName]], ATP Buenos Aires (clay), Alcaraz C. - Ugo Carabelli C.</t>
+  </si>
+  <si>
+    <t>Thursday,
+15 Feb 2024,
+23:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final result 
+2:0
+ (6:2, 7:5) </t>
+  </si>
+  <si>
+    <t>Ugo Carabelli C.</t>
+  </si>
+  <si>
+    <t>https://www.oddsportal.com/tennis/argentina/atp-buenos-aires/coria-federico-norrie-cameron-QHWfulHo/</t>
+  </si>
+  <si>
+    <t>2.53</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>93.0%</t>
+  </si>
+  <si>
+    <t>2024-05-11 21:36:54</t>
+  </si>
+  <si>
+    <t>Compare tennis betting odds on ATP Buenos Aires (clay) match Coria F. - Norrie C..</t>
+  </si>
+  <si>
+    <t>Tennis, [[CountryName]], ATP Buenos Aires (clay), Coria F. - Norrie C.</t>
+  </si>
+  <si>
+    <t>Thursday,
+15 Feb 2024,
+20:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final result 
+2:1
+ (6:2, 4:6, 6:3) </t>
+  </si>
+  <si>
+    <t>Norrie C.</t>
   </si>
 </sst>
 </file>
@@ -629,22 +716,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="97.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,271 +770,418 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>1.42</v>
+      </c>
+      <c r="E2">
+        <v>2.67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
-        <v>1.42</v>
-      </c>
-      <c r="D2">
-        <v>2.67</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
+      <c r="D3">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E3">
+        <v>5.25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>1.82</v>
+      </c>
+      <c r="E4">
+        <v>1.96</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>2.15</v>
+      </c>
+      <c r="E5">
+        <v>1.67</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="M5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="D3">
-        <v>5.25</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>1.04</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>1.28</v>
+      </c>
+      <c r="E7">
+        <v>3.43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>1.77</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C4">
-        <v>1.82</v>
-      </c>
-      <c r="D4">
-        <v>1.96</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>1.57</v>
+      </c>
+      <c r="E9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>1.06</v>
+      </c>
+      <c r="E10">
+        <v>8.5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" t="s">
-        <v>37</v>
+      <c r="M10" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="C5">
-        <v>2.15</v>
-      </c>
-      <c r="D5">
-        <v>1.67</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" t="s">
         <v>39</v>
       </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>1.04</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>1.28</v>
-      </c>
-      <c r="D7">
-        <v>3.43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" t="s">
-        <v>70</v>
-      </c>
-      <c r="K8" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" t="s">
-        <v>21</v>
+      <c r="M11" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
